--- a/Pandas-Example2.xlsx
+++ b/Pandas-Example2.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Mangelliste" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>ORDINV_ID</t>
   </si>
@@ -302,21 +302,6 @@
     <t>40782614</t>
   </si>
   <si>
-    <t>280791-2251</t>
-  </si>
-  <si>
-    <t>DNAHFEL</t>
-  </si>
-  <si>
-    <t>DNA-Hæmokromatose-rel. gener gruppe</t>
-  </si>
-  <si>
-    <t>GM4113</t>
-  </si>
-  <si>
-    <t>001708</t>
-  </si>
-  <si>
     <t>100368-0777</t>
   </si>
   <si>
@@ -347,156 +332,132 @@
     <t>005630</t>
   </si>
   <si>
-    <t>300840-0783</t>
+    <t>241089-1908</t>
+  </si>
+  <si>
+    <t>007668</t>
+  </si>
+  <si>
+    <t>230787-1338</t>
+  </si>
+  <si>
+    <t>024465</t>
+  </si>
+  <si>
+    <t>Indikation: Der er fundet irregulære antistoffer hvorfor ny prøve. Der er ingen grund til nye virusprøver så disse kan annulleres. MB</t>
+  </si>
+  <si>
+    <t>Praktiserende læger</t>
+  </si>
+  <si>
+    <t>100674-3079</t>
+  </si>
+  <si>
+    <t>ITA(BH)</t>
+  </si>
+  <si>
+    <t>1309610</t>
+  </si>
+  <si>
+    <t>041065-0401</t>
+  </si>
+  <si>
+    <t>151264-2906</t>
+  </si>
+  <si>
+    <t>180450-1041</t>
+  </si>
+  <si>
+    <t>150164-0537</t>
+  </si>
+  <si>
+    <t>070151-0879</t>
+  </si>
+  <si>
+    <t>070938-0249</t>
+  </si>
+  <si>
+    <t>300466-0721</t>
+  </si>
+  <si>
+    <t>Indikation: Dagligt sålænge patienten er i CRRT</t>
+  </si>
+  <si>
+    <t>150351-0398</t>
+  </si>
+  <si>
+    <t>191251-0219</t>
+  </si>
+  <si>
+    <t>010850-1715</t>
+  </si>
+  <si>
+    <t>190848-0712</t>
+  </si>
+  <si>
+    <t>280442-0110</t>
+  </si>
+  <si>
+    <t>281041-0623</t>
+  </si>
+  <si>
+    <t>N26(BH)</t>
+  </si>
+  <si>
+    <t>N0(BH)</t>
+  </si>
+  <si>
+    <t>1309170</t>
+  </si>
+  <si>
+    <t>220846-0458</t>
+  </si>
+  <si>
+    <t>IAKUT2(BH)</t>
+  </si>
+  <si>
+    <t>1309470</t>
+  </si>
+  <si>
+    <t>030472-3416</t>
+  </si>
+  <si>
+    <t>081090-4437</t>
+  </si>
+  <si>
+    <t>K5(BH)</t>
+  </si>
+  <si>
+    <t>K(BH)</t>
+  </si>
+  <si>
+    <t>1309480</t>
+  </si>
+  <si>
+    <t>150547-0318</t>
+  </si>
+  <si>
+    <t>K3(BH)</t>
+  </si>
+  <si>
+    <t>KS(BH)</t>
+  </si>
+  <si>
+    <t>130948S</t>
+  </si>
+  <si>
+    <t>050787-1305</t>
+  </si>
+  <si>
+    <t>240249-0376</t>
+  </si>
+  <si>
+    <t>201161-2612</t>
   </si>
   <si>
     <t>007005</t>
   </si>
   <si>
-    <t>241089-1908</t>
-  </si>
-  <si>
-    <t>007668</t>
-  </si>
-  <si>
-    <t>230787-1338</t>
-  </si>
-  <si>
-    <t>024465</t>
-  </si>
-  <si>
-    <t>Indikation: Der er fundet irregulære antistoffer hvorfor ny prøve. Der er ingen grund til nye virusprøver så disse kan annulleres. MB</t>
-  </si>
-  <si>
-    <t>Praktiserende læger</t>
-  </si>
-  <si>
-    <t>180458-1886</t>
-  </si>
-  <si>
-    <t>DNAPHPT</t>
-  </si>
-  <si>
-    <t>DNA(spec.)-PHPT-pakke (Ny familie)</t>
-  </si>
-  <si>
-    <t>238391000016008</t>
-  </si>
-  <si>
-    <t>4202089</t>
-  </si>
-  <si>
-    <t>270256-0791</t>
-  </si>
-  <si>
-    <t>010618</t>
-  </si>
-  <si>
-    <t>100674-3079</t>
-  </si>
-  <si>
-    <t>ITA(BH)</t>
-  </si>
-  <si>
-    <t>1309610</t>
-  </si>
-  <si>
-    <t>041065-0401</t>
-  </si>
-  <si>
-    <t>151264-2906</t>
-  </si>
-  <si>
-    <t>180450-1041</t>
-  </si>
-  <si>
-    <t>150164-0537</t>
-  </si>
-  <si>
-    <t>070151-0879</t>
-  </si>
-  <si>
-    <t>070938-0249</t>
-  </si>
-  <si>
-    <t>300466-0721</t>
-  </si>
-  <si>
-    <t>Indikation: Dagligt sålænge patienten er i CRRT</t>
-  </si>
-  <si>
-    <t>150351-0398</t>
-  </si>
-  <si>
-    <t>191251-0219</t>
-  </si>
-  <si>
-    <t>010850-1715</t>
-  </si>
-  <si>
-    <t>190848-0712</t>
-  </si>
-  <si>
-    <t>280442-0110</t>
-  </si>
-  <si>
-    <t>281041-0623</t>
-  </si>
-  <si>
-    <t>N26(BH)</t>
-  </si>
-  <si>
-    <t>N0(BH)</t>
-  </si>
-  <si>
-    <t>1309170</t>
-  </si>
-  <si>
-    <t>220846-0458</t>
-  </si>
-  <si>
-    <t>IAKUT2(BH)</t>
-  </si>
-  <si>
-    <t>1309470</t>
-  </si>
-  <si>
-    <t>030472-3416</t>
-  </si>
-  <si>
-    <t>081090-4437</t>
-  </si>
-  <si>
-    <t>K5(BH)</t>
-  </si>
-  <si>
-    <t>K(BH)</t>
-  </si>
-  <si>
-    <t>1309480</t>
-  </si>
-  <si>
-    <t>150547-0318</t>
-  </si>
-  <si>
-    <t>K3(BH)</t>
-  </si>
-  <si>
-    <t>KS(BH)</t>
-  </si>
-  <si>
-    <t>130948S</t>
-  </si>
-  <si>
-    <t>050787-1305</t>
-  </si>
-  <si>
-    <t>240249-0376</t>
-  </si>
-  <si>
-    <t>201161-2612</t>
-  </si>
-  <si>
     <t>110832-0237</t>
   </si>
   <si>
@@ -663,21 +624,6 @@
   </si>
   <si>
     <t>205338</t>
-  </si>
-  <si>
-    <t>140887-3300</t>
-  </si>
-  <si>
-    <t>DNAPGS</t>
-  </si>
-  <si>
-    <t>DNA(spec)-Aneuploidi-test</t>
-  </si>
-  <si>
-    <t>G1A63C7F(HER)</t>
-  </si>
-  <si>
-    <t>TE-2 + NEGK-2</t>
   </si>
   <si>
     <t>210579-2983</t>
@@ -1161,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y118"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2518,10 +2464,10 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" t="n">
-        <v>543547976</v>
+        <v>542879186</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -2541,36 +2487,36 @@
         <v>98</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>43278.66180555556</v>
+        <v>43283.32638888889</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>43283.44203703704</v>
+        <v>43283.44274305556</v>
       </c>
       <c r="L22" t="n">
-        <v>102424023045</v>
+        <v>104833635250</v>
       </c>
       <c r="M22" t="n">
-        <v>102424023070</v>
+        <v>103363758408</v>
       </c>
       <c r="N22" t="s">
         <v>99</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s">
         <v>99</v>
       </c>
+      <c r="P22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s">
         <v>99</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s"/>
       <c r="W22" t="s"/>
@@ -2579,59 +2525,59 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="n">
-        <v>542879186</v>
+        <v>543472231</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s"/>
       <c r="H23" t="s"/>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>43283.32638888889</v>
+        <v>43283.34097222222</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>43283.44274305556</v>
+        <v>43283.44276620371</v>
       </c>
       <c r="L23" t="n">
-        <v>104833635250</v>
+        <v>103363774438</v>
       </c>
       <c r="M23" t="n">
-        <v>103363758408</v>
+        <v>103363774691</v>
       </c>
       <c r="N23" t="s">
         <v>104</v>
       </c>
       <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s">
         <v>104</v>
       </c>
-      <c r="P23" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q23" t="s"/>
       <c r="R23" t="s">
         <v>104</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s"/>
       <c r="W23" t="s"/>
@@ -2640,52 +2586,52 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="n">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B24" t="n">
-        <v>543472231</v>
+        <v>543485289</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s"/>
       <c r="H24" t="s"/>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>43283.34097222222</v>
+        <v>43283.37569444445</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>43283.44276620371</v>
+        <v>43283.46810185185</v>
       </c>
       <c r="L24" t="n">
-        <v>103363774438</v>
+        <v>103363806712</v>
       </c>
       <c r="M24" t="n">
-        <v>103363774691</v>
+        <v>103363807018</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O24" t="s">
         <v>36</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s">
@@ -2701,59 +2647,59 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="n">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B25" t="n">
-        <v>543548252</v>
+        <v>543476899</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s"/>
       <c r="H25" t="s"/>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>43279.40277777778</v>
+        <v>43283.35555555556</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>43283.44282407407</v>
+        <v>43283.46810185185</v>
       </c>
       <c r="L25" t="n">
-        <v>102424350712</v>
+        <v>103363787467</v>
       </c>
       <c r="M25" t="n">
-        <v>102424350763</v>
+        <v>103363789362</v>
       </c>
       <c r="N25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R25" t="s">
-        <v>111</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="S25" t="s">
+        <v>109</v>
+      </c>
       <c r="T25" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="U25" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="V25" t="s"/>
       <c r="W25" t="s"/>
@@ -2762,59 +2708,63 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="n">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B26" t="n">
-        <v>543485289</v>
+        <v>543444425</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>43283.24583333333</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>43283.50233796296</v>
+      </c>
+      <c r="L26" t="n">
+        <v>104834203710</v>
+      </c>
+      <c r="M26" t="n">
+        <v>103363696534</v>
+      </c>
+      <c r="N26" t="s">
         <v>112</v>
       </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>43283.37569444445</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>43283.46810185185</v>
-      </c>
-      <c r="L26" t="n">
-        <v>103363806712</v>
-      </c>
-      <c r="M26" t="n">
-        <v>103363807018</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" t="s">
         <v>113</v>
       </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="U26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V26" t="s"/>
       <c r="W26" t="s"/>
@@ -2823,10 +2773,10 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="n">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="B27" t="n">
-        <v>543476899</v>
+        <v>543438613</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -2835,47 +2785,51 @@
         <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G27" t="n">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>43283.35555555556</v>
+        <v>43283.21875</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>43283.46810185185</v>
+        <v>43283.50269675926</v>
       </c>
       <c r="L27" t="n">
-        <v>103363787467</v>
+        <v>104834199160</v>
       </c>
       <c r="M27" t="n">
-        <v>103363789362</v>
+        <v>103363693969</v>
       </c>
       <c r="N27" t="s">
-        <v>115</v>
-      </c>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s">
-        <v>115</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s">
-        <v>115</v>
-      </c>
-      <c r="S27" t="s">
-        <v>116</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U27" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="V27" t="s"/>
       <c r="W27" t="s"/>
@@ -2884,59 +2838,63 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="n">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="B28" t="n">
-        <v>534385405</v>
+        <v>543438598</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G28" t="n">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>43244.59375</v>
+        <v>43283.22638888889</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>43283.46811342592</v>
+        <v>43283.50309027778</v>
       </c>
       <c r="L28" t="n">
-        <v>103351240816</v>
+        <v>104834199143</v>
       </c>
       <c r="M28" t="n">
-        <v>103351241219</v>
+        <v>103363693900</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="U28" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="V28" t="s"/>
       <c r="W28" t="s"/>
@@ -2945,59 +2903,63 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B29" t="n">
-        <v>542950551</v>
+        <v>543444706</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>43280.30625</v>
+        <v>43283.24513888889</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>43283.48752314815</v>
+        <v>43283.51157407407</v>
       </c>
       <c r="L29" t="n">
-        <v>103363069947</v>
+        <v>104834203787</v>
       </c>
       <c r="M29" t="n">
-        <v>103363070031</v>
+        <v>103363696909</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s">
-        <v>124</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="U29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V29" t="s"/>
       <c r="W29" t="s"/>
@@ -3006,16 +2968,16 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B30" t="n">
-        <v>543444425</v>
+        <v>543424150</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
         <v>60</v>
@@ -3033,33 +2995,33 @@
         <v>62</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>43283.24583333333</v>
+        <v>43283.23333333333</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>43283.50233796296</v>
+        <v>43283.51157407407</v>
       </c>
       <c r="L30" t="n">
-        <v>104834203710</v>
+        <v>104834181970</v>
       </c>
       <c r="M30" t="n">
-        <v>103363696534</v>
+        <v>103363692016</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U30" t="s">
         <v>31</v>
@@ -3071,16 +3033,16 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="n">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B31" t="n">
-        <v>543438613</v>
+        <v>543439712</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -3098,33 +3060,33 @@
         <v>62</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>43283.21875</v>
+        <v>43283.23263888889</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>43283.50269675926</v>
+        <v>43283.51158564815</v>
       </c>
       <c r="L31" t="n">
-        <v>104834199160</v>
+        <v>104834199500</v>
       </c>
       <c r="M31" t="n">
-        <v>103363693969</v>
+        <v>103363694213</v>
       </c>
       <c r="N31" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O31" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U31" t="s">
         <v>31</v>
@@ -3136,16 +3098,16 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="n">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B32" t="n">
-        <v>543438598</v>
+        <v>543439716</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>60</v>
@@ -3163,33 +3125,33 @@
         <v>62</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>43283.22638888889</v>
+        <v>43283.23333333333</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>43283.50309027778</v>
+        <v>43283.51158564815</v>
       </c>
       <c r="L32" t="n">
-        <v>104834199143</v>
+        <v>104834199526</v>
       </c>
       <c r="M32" t="n">
-        <v>103363693900</v>
+        <v>103363694264</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O32" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U32" t="s">
         <v>31</v>
@@ -3201,16 +3163,16 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B33" t="n">
-        <v>543444706</v>
+        <v>543420820</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
@@ -3228,33 +3190,35 @@
         <v>62</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>43283.24513888889</v>
+        <v>43283.22777777778</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>43283.51157407407</v>
+        <v>43283.51158564815</v>
       </c>
       <c r="L33" t="n">
-        <v>104834203787</v>
+        <v>104834167519</v>
       </c>
       <c r="M33" t="n">
-        <v>103363696909</v>
+        <v>103363687470</v>
       </c>
       <c r="N33" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O33" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s">
-        <v>126</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="S33" t="s">
+        <v>121</v>
+      </c>
       <c r="T33" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U33" t="s">
         <v>31</v>
@@ -3266,16 +3230,16 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B34" t="n">
-        <v>543424150</v>
+        <v>543424106</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
         <v>60</v>
@@ -3293,33 +3257,33 @@
         <v>62</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>43283.23333333333</v>
+        <v>43283.24583333333</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>43283.51157407407</v>
+        <v>43283.5116550926</v>
       </c>
       <c r="L34" t="n">
-        <v>104834181970</v>
+        <v>104834181880</v>
       </c>
       <c r="M34" t="n">
-        <v>103363692016</v>
+        <v>103363691893</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U34" t="s">
         <v>31</v>
@@ -3331,16 +3295,16 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B35" t="n">
-        <v>543439712</v>
+        <v>543438237</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
         <v>60</v>
@@ -3358,33 +3322,33 @@
         <v>62</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>43283.23263888889</v>
+        <v>43283.225</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>43283.51158564815</v>
+        <v>43283.5116550926</v>
       </c>
       <c r="L35" t="n">
-        <v>104834199500</v>
+        <v>104834199089</v>
       </c>
       <c r="M35" t="n">
-        <v>103363694213</v>
+        <v>103363693640</v>
       </c>
       <c r="N35" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O35" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U35" t="s">
         <v>31</v>
@@ -3396,16 +3360,16 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B36" t="n">
-        <v>543439716</v>
+        <v>543438176</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
         <v>60</v>
@@ -3423,33 +3387,33 @@
         <v>62</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>43283.23333333333</v>
+        <v>43283.24097222222</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>43283.51158564815</v>
+        <v>43283.5116550926</v>
       </c>
       <c r="L36" t="n">
-        <v>104834199526</v>
+        <v>104834198996</v>
       </c>
       <c r="M36" t="n">
-        <v>103363694264</v>
+        <v>103363693594</v>
       </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O36" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U36" t="s">
         <v>31</v>
@@ -3461,16 +3425,16 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B37" t="n">
-        <v>543420820</v>
+        <v>543424876</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
         <v>60</v>
@@ -3488,35 +3452,33 @@
         <v>62</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>43283.22777777778</v>
+        <v>43283.22638888889</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>43283.51158564815</v>
+        <v>43283.5116550926</v>
       </c>
       <c r="L37" t="n">
-        <v>104834167519</v>
+        <v>104834182291</v>
       </c>
       <c r="M37" t="n">
-        <v>103363687470</v>
+        <v>103363692881</v>
       </c>
       <c r="N37" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O37" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s">
-        <v>126</v>
-      </c>
-      <c r="S37" t="s">
-        <v>135</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U37" t="s">
         <v>31</v>
@@ -3528,16 +3490,16 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="B38" t="n">
-        <v>543424106</v>
+        <v>543305916</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -3555,33 +3517,33 @@
         <v>62</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>43283.24583333333</v>
+        <v>43282.32777777778</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>43283.5116550926</v>
+        <v>43283.52219907408</v>
       </c>
       <c r="L38" t="n">
-        <v>104834181880</v>
+        <v>104834024815</v>
       </c>
       <c r="M38" t="n">
-        <v>103363691893</v>
+        <v>103363571715</v>
       </c>
       <c r="N38" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O38" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U38" t="s">
         <v>31</v>
@@ -3593,16 +3555,16 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="n">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="B39" t="n">
-        <v>543438237</v>
+        <v>543176485</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
         <v>60</v>
@@ -3620,33 +3582,33 @@
         <v>62</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>43283.225</v>
+        <v>43281.24722222222</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>43283.5116550926</v>
+        <v>43283.52237268518</v>
       </c>
       <c r="L39" t="n">
-        <v>104834199089</v>
+        <v>104833892546</v>
       </c>
       <c r="M39" t="n">
-        <v>103363693640</v>
+        <v>103363378591</v>
       </c>
       <c r="N39" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O39" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="U39" t="s">
         <v>31</v>
@@ -3658,16 +3620,16 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="n">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="B40" t="n">
-        <v>543438176</v>
+        <v>543190656</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
         <v>60</v>
@@ -3685,33 +3647,33 @@
         <v>62</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>43283.24097222222</v>
+        <v>43281.44444444445</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>43283.5116550926</v>
+        <v>43283.52255787037</v>
       </c>
       <c r="L40" t="n">
-        <v>104834198996</v>
+        <v>104833911842</v>
       </c>
       <c r="M40" t="n">
-        <v>103363693594</v>
+        <v>103363419760</v>
       </c>
       <c r="N40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U40" t="s">
         <v>31</v>
@@ -3723,16 +3685,16 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="n">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="B41" t="n">
-        <v>543424876</v>
+        <v>543185931</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
@@ -3750,33 +3712,33 @@
         <v>62</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>43283.22638888889</v>
+        <v>43281.36736111111</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>43283.5116550926</v>
+        <v>43283.52274305555</v>
       </c>
       <c r="L41" t="n">
-        <v>104834182291</v>
+        <v>104833907268</v>
       </c>
       <c r="M41" t="n">
-        <v>103363692881</v>
+        <v>103363419387</v>
       </c>
       <c r="N41" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O41" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q41" t="s"/>
       <c r="R41" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="U41" t="s">
         <v>31</v>
@@ -3788,16 +3750,16 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="n">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B42" t="n">
-        <v>543305916</v>
+        <v>543190628</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -3815,33 +3777,33 @@
         <v>62</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>43282.32777777778</v>
+        <v>43281.45069444444</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>43283.52219907408</v>
+        <v>43283.52465277778</v>
       </c>
       <c r="L42" t="n">
-        <v>104834024815</v>
+        <v>104833911893</v>
       </c>
       <c r="M42" t="n">
-        <v>103363571715</v>
+        <v>103363419727</v>
       </c>
       <c r="N42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U42" t="s">
         <v>31</v>
@@ -3853,16 +3815,16 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B43" t="n">
-        <v>543176485</v>
+        <v>543289442</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
         <v>60</v>
@@ -3880,33 +3842,33 @@
         <v>62</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>43281.24722222222</v>
+        <v>43282.45069444444</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>43283.52237268518</v>
+        <v>43283.52465277778</v>
       </c>
       <c r="L43" t="n">
-        <v>104833892546</v>
+        <v>104834020160</v>
       </c>
       <c r="M43" t="n">
-        <v>103363378591</v>
+        <v>103363566851</v>
       </c>
       <c r="N43" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O43" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P43" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="S43" t="s"/>
       <c r="T43" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="U43" t="s">
         <v>31</v>
@@ -3918,16 +3880,16 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B44" t="n">
-        <v>543190656</v>
+        <v>543289490</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
         <v>60</v>
@@ -3945,33 +3907,33 @@
         <v>62</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>43281.44444444445</v>
+        <v>43282.36458333334</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>43283.52255787037</v>
+        <v>43283.52465277778</v>
       </c>
       <c r="L44" t="n">
-        <v>104833911842</v>
+        <v>104834019897</v>
       </c>
       <c r="M44" t="n">
-        <v>103363419760</v>
+        <v>103363566592</v>
       </c>
       <c r="N44" t="s">
+        <v>140</v>
+      </c>
+      <c r="O44" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" t="s">
         <v>142</v>
-      </c>
-      <c r="O44" t="s">
-        <v>143</v>
-      </c>
-      <c r="P44" t="s">
-        <v>144</v>
       </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U44" t="s">
         <v>31</v>
@@ -3983,16 +3945,16 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="n">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B45" t="n">
-        <v>543185931</v>
+        <v>542728457</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>60</v>
@@ -4010,33 +3972,33 @@
         <v>62</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>43281.36736111111</v>
+        <v>43280.43611111111</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>43283.52274305555</v>
+        <v>43283.52482638889</v>
       </c>
       <c r="L45" t="n">
-        <v>104833907268</v>
+        <v>104833533813</v>
       </c>
       <c r="M45" t="n">
-        <v>103363419387</v>
+        <v>103363169429</v>
       </c>
       <c r="N45" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="O45" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="U45" t="s">
         <v>31</v>
@@ -4048,16 +4010,16 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B46" t="n">
-        <v>543190628</v>
+        <v>543072855</v>
       </c>
       <c r="C46" t="s">
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
         <v>60</v>
@@ -4075,33 +4037,33 @@
         <v>62</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>43281.45069444444</v>
+        <v>43280.53402777778</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>43283.52465277778</v>
+        <v>43283.52483796296</v>
       </c>
       <c r="L46" t="n">
-        <v>104833911893</v>
+        <v>104833785650</v>
       </c>
       <c r="M46" t="n">
-        <v>103363419727</v>
+        <v>103363256992</v>
       </c>
       <c r="N46" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="O46" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="U46" t="s">
         <v>31</v>
@@ -4113,16 +4075,16 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B47" t="n">
-        <v>543289442</v>
+        <v>542991969</v>
       </c>
       <c r="C47" t="s">
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
         <v>60</v>
@@ -4140,36 +4102,36 @@
         <v>62</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>43282.45069444444</v>
+        <v>43280.37361111111</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>43283.52465277778</v>
+        <v>43283.52483796296</v>
       </c>
       <c r="L47" t="n">
-        <v>104834020160</v>
+        <v>102425096810</v>
       </c>
       <c r="M47" t="n">
-        <v>103363566851</v>
+        <v>102425096852</v>
       </c>
       <c r="N47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s">
-        <v>151</v>
-      </c>
-      <c r="P47" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q47" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s">
+        <v>146</v>
+      </c>
       <c r="R47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="U47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V47" t="s"/>
       <c r="W47" t="s"/>
@@ -4178,16 +4140,16 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="n">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B48" t="n">
-        <v>543289490</v>
+        <v>543190116</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
         <v>60</v>
@@ -4205,33 +4167,33 @@
         <v>62</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>43282.36458333334</v>
+        <v>43281.37361111111</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>43283.52465277778</v>
+        <v>43283.52483796296</v>
       </c>
       <c r="L48" t="n">
-        <v>104834019897</v>
+        <v>104833911630</v>
       </c>
       <c r="M48" t="n">
-        <v>103363566592</v>
+        <v>103363418470</v>
       </c>
       <c r="N48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q48" t="s"/>
       <c r="R48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="S48" t="s"/>
       <c r="T48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="U48" t="s">
         <v>31</v>
@@ -4243,16 +4205,16 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B49" t="n">
-        <v>542728457</v>
+        <v>534823519</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
         <v>60</v>
@@ -4270,16 +4232,16 @@
         <v>62</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>43280.43611111111</v>
+        <v>43280.50833333333</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>43283.52482638889</v>
+        <v>43283.52483796296</v>
       </c>
       <c r="L49" t="n">
-        <v>104833533813</v>
+        <v>104803151378</v>
       </c>
       <c r="M49" t="n">
-        <v>103363169429</v>
+        <v>103363241570</v>
       </c>
       <c r="N49" t="s">
         <v>90</v>
@@ -4308,16 +4270,16 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B50" t="n">
-        <v>543072855</v>
+        <v>543186999</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
         <v>60</v>
@@ -4335,33 +4297,33 @@
         <v>62</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>43280.53402777778</v>
+        <v>43281.39305555556</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>43283.52483796296</v>
       </c>
       <c r="L50" t="n">
-        <v>104833785650</v>
+        <v>104833908337</v>
       </c>
       <c r="M50" t="n">
-        <v>103363256992</v>
+        <v>103363419131</v>
       </c>
       <c r="N50" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="O50" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="P50" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="Q50" t="s"/>
       <c r="R50" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="S50" t="s"/>
       <c r="T50" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="U50" t="s">
         <v>31</v>
@@ -4373,16 +4335,16 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B51" t="n">
-        <v>542991969</v>
+        <v>543042738</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
         <v>60</v>
@@ -4400,54 +4362,56 @@
         <v>62</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>43280.37361111111</v>
+        <v>43280.47638888889</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>43283.52483796296</v>
       </c>
       <c r="L51" t="n">
-        <v>102425096810</v>
+        <v>104833762820</v>
       </c>
       <c r="M51" t="n">
-        <v>102425096852</v>
+        <v>103363213282</v>
       </c>
       <c r="N51" t="s">
-        <v>111</v>
-      </c>
-      <c r="O51" t="s">
-        <v>36</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s">
-        <v>111</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="U51" t="s">
-        <v>36</v>
-      </c>
-      <c r="V51" t="s"/>
-      <c r="W51" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="V51" t="s">
+        <v>157</v>
+      </c>
+      <c r="W51" t="s">
+        <v>158</v>
+      </c>
       <c r="X51" t="s"/>
       <c r="Y51" t="s"/>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B52" t="n">
-        <v>543190116</v>
+        <v>543012306</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
         <v>60</v>
@@ -4465,33 +4429,33 @@
         <v>62</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>43281.37361111111</v>
+        <v>43280.45416666667</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>43283.52483796296</v>
       </c>
       <c r="L52" t="n">
-        <v>104833911630</v>
+        <v>104833745268</v>
       </c>
       <c r="M52" t="n">
-        <v>103363418470</v>
+        <v>103363179270</v>
       </c>
       <c r="N52" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="Q52" t="s"/>
       <c r="R52" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="U52" t="s">
         <v>31</v>
@@ -4503,16 +4467,16 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B53" t="n">
-        <v>534823519</v>
+        <v>543214729</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
@@ -4530,33 +4494,33 @@
         <v>62</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>43280.50833333333</v>
+        <v>43281.42152777778</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>43283.52483796296</v>
+        <v>43283.52484953704</v>
       </c>
       <c r="L53" t="n">
-        <v>104803151378</v>
+        <v>104833926602</v>
       </c>
       <c r="M53" t="n">
-        <v>103363241570</v>
+        <v>103363436893</v>
       </c>
       <c r="N53" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="P53" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="Q53" t="s"/>
       <c r="R53" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="S53" t="s"/>
       <c r="T53" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="U53" t="s">
         <v>31</v>
@@ -4568,16 +4532,16 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B54" t="n">
-        <v>543186999</v>
+        <v>543275955</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -4595,33 +4559,33 @@
         <v>62</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>43281.39305555556</v>
+        <v>43282.22847222222</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>43283.52483796296</v>
+        <v>43283.52484953704</v>
       </c>
       <c r="L54" t="n">
-        <v>104833908337</v>
+        <v>104833995868</v>
       </c>
       <c r="M54" t="n">
-        <v>103363419131</v>
+        <v>103363528151</v>
       </c>
       <c r="N54" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="O54" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="P54" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Q54" t="s"/>
       <c r="R54" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="U54" t="s">
         <v>31</v>
@@ -4633,16 +4597,16 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B55" t="n">
-        <v>543042738</v>
+        <v>543023674</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
@@ -4660,56 +4624,54 @@
         <v>62</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>43280.47638888889</v>
+        <v>43280.58194444444</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>43283.52483796296</v>
+        <v>43283.52490740741</v>
       </c>
       <c r="L55" t="n">
-        <v>104833762820</v>
+        <v>104833751411</v>
       </c>
       <c r="M55" t="n">
-        <v>103363213282</v>
+        <v>103363264812</v>
       </c>
       <c r="N55" t="s">
-        <v>168</v>
-      </c>
-      <c r="O55" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="O55" t="s">
+        <v>164</v>
+      </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q55" t="s"/>
       <c r="R55" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S55" t="s"/>
       <c r="T55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="U55" t="s">
         <v>31</v>
       </c>
-      <c r="V55" t="s">
-        <v>170</v>
-      </c>
-      <c r="W55" t="s">
-        <v>171</v>
-      </c>
+      <c r="V55" t="s"/>
+      <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s"/>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B56" t="n">
-        <v>543012306</v>
+        <v>543289627</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>60</v>
@@ -4727,33 +4689,33 @@
         <v>62</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>43280.45416666667</v>
+        <v>43282.44791666666</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>43283.52483796296</v>
+        <v>43283.52490740741</v>
       </c>
       <c r="L56" t="n">
-        <v>104833745268</v>
+        <v>104834019692</v>
       </c>
       <c r="M56" t="n">
-        <v>103363179270</v>
+        <v>103363568528</v>
       </c>
       <c r="N56" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="Q56" t="s"/>
       <c r="R56" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="S56" t="s"/>
       <c r="T56" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="U56" t="s">
         <v>31</v>
@@ -4765,63 +4727,61 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B57" t="n">
-        <v>543214729</v>
+        <v>543110445</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="n">
-        <v>29</v>
-      </c>
-      <c r="H57" t="s">
-        <v>62</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s"/>
       <c r="I57" t="s">
         <v>62</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>43281.42152777778</v>
+        <v>43280.70069444444</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>43283.52484953704</v>
+        <v>43283.52563657407</v>
       </c>
       <c r="L57" t="n">
-        <v>104833926602</v>
+        <v>104833815983</v>
       </c>
       <c r="M57" t="n">
-        <v>103363436893</v>
+        <v>103363312809</v>
       </c>
       <c r="N57" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O57" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q57" t="s"/>
       <c r="R57" t="s">
-        <v>161</v>
-      </c>
-      <c r="S57" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="S57" t="s">
+        <v>171</v>
+      </c>
       <c r="T57" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="U57" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="V57" t="s"/>
       <c r="W57" t="s"/>
@@ -4830,16 +4790,16 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B58" t="n">
-        <v>543275955</v>
+        <v>543147692</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -4857,33 +4817,33 @@
         <v>62</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>43282.22847222222</v>
+        <v>43281.19652777778</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>43283.52484953704</v>
+        <v>43283.52576388889</v>
       </c>
       <c r="L58" t="n">
-        <v>104833995868</v>
+        <v>104833854431</v>
       </c>
       <c r="M58" t="n">
-        <v>103363528151</v>
+        <v>103363367638</v>
       </c>
       <c r="N58" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O58" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="Q58" t="s"/>
       <c r="R58" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="S58" t="s"/>
       <c r="T58" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="U58" t="s">
         <v>31</v>
@@ -4895,16 +4855,16 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="n">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B59" t="n">
-        <v>543023674</v>
+        <v>543232161</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
         <v>60</v>
@@ -4922,33 +4882,33 @@
         <v>62</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>43280.58194444444</v>
+        <v>43281.83819444444</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>43283.52490740741</v>
+        <v>43283.52577546296</v>
       </c>
       <c r="L59" t="n">
-        <v>104833751411</v>
+        <v>104833948398</v>
       </c>
       <c r="M59" t="n">
-        <v>103363264812</v>
+        <v>103363480280</v>
       </c>
       <c r="N59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="Q59" t="s"/>
       <c r="R59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S59" t="s"/>
       <c r="T59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U59" t="s">
         <v>31</v>
@@ -4960,63 +4920,63 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="n">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="B60" t="n">
-        <v>543289627</v>
+        <v>535781159</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="G60" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>43282.44791666666</v>
+        <v>43283.52777777778</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>43283.52490740741</v>
+        <v>43283.52884259259</v>
       </c>
       <c r="L60" t="n">
-        <v>104834019692</v>
+        <v>104828526839</v>
       </c>
       <c r="M60" t="n">
-        <v>103363568528</v>
+        <v>103363984297</v>
       </c>
       <c r="N60" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="O60" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="P60" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="Q60" t="s"/>
       <c r="R60" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="S60" t="s"/>
       <c r="T60" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="U60" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="V60" t="s"/>
       <c r="W60" t="s"/>
@@ -5025,61 +4985,63 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="n">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B61" t="n">
-        <v>543110445</v>
+        <v>536902736</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
       <c r="I61" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>43280.70069444444</v>
+        <v>43283.50277777778</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>43283.52563657407</v>
+        <v>43283.53068287037</v>
       </c>
       <c r="L61" t="n">
-        <v>104833815983</v>
+        <v>104829432374</v>
       </c>
       <c r="M61" t="n">
-        <v>103363312809</v>
+        <v>103363946620</v>
       </c>
       <c r="N61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q61" t="s"/>
       <c r="R61" t="s">
-        <v>182</v>
-      </c>
-      <c r="S61" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="U61" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="V61" t="s"/>
       <c r="W61" t="s"/>
@@ -5088,63 +5050,59 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="n">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="B62" t="n">
-        <v>543147692</v>
+        <v>543486998</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="n">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s">
-        <v>62</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s"/>
       <c r="I62" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>43281.19652777778</v>
+        <v>43283.38333333333</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>43283.52576388889</v>
+        <v>43283.53310185186</v>
       </c>
       <c r="L62" t="n">
-        <v>104833854431</v>
+        <v>103363809398</v>
       </c>
       <c r="M62" t="n">
-        <v>103363367638</v>
+        <v>103363809550</v>
       </c>
       <c r="N62" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O62" t="s">
-        <v>155</v>
-      </c>
-      <c r="P62" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q62" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s">
+        <v>188</v>
+      </c>
       <c r="R62" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="S62" t="s"/>
       <c r="T62" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="U62" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V62" t="s"/>
       <c r="W62" t="s"/>
@@ -5153,63 +5111,63 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="n">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B63" t="n">
-        <v>543232161</v>
+        <v>542952179</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G63" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>43281.83819444444</v>
+        <v>43280.32916666667</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>43283.52577546296</v>
+        <v>43283.53524305556</v>
       </c>
       <c r="L63" t="n">
-        <v>104833948398</v>
+        <v>103363074118</v>
       </c>
       <c r="M63" t="n">
-        <v>103363480280</v>
+        <v>103363074177</v>
       </c>
       <c r="N63" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O63" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P63" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="Q63" t="s"/>
       <c r="R63" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="S63" t="s"/>
       <c r="T63" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="U63" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="V63" t="s"/>
       <c r="W63" t="s"/>
@@ -5218,63 +5176,63 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="n">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B64" t="n">
-        <v>535781159</v>
+        <v>543476900</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>43283.52777777778</v>
+        <v>43283.35486111111</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>43283.52884259259</v>
+        <v>43283.53939814815</v>
       </c>
       <c r="L64" t="n">
-        <v>104828526839</v>
+        <v>103363787467</v>
       </c>
       <c r="M64" t="n">
-        <v>103363984297</v>
+        <v>103363789370</v>
       </c>
       <c r="N64" t="s">
-        <v>192</v>
-      </c>
-      <c r="O64" t="s">
-        <v>192</v>
-      </c>
-      <c r="P64" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q64" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s">
+        <v>108</v>
+      </c>
       <c r="R64" t="s">
-        <v>192</v>
-      </c>
-      <c r="S64" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="S64" t="s">
+        <v>109</v>
+      </c>
       <c r="T64" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="U64" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="V64" t="s"/>
       <c r="W64" t="s"/>
@@ -5283,22 +5241,22 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B65" t="n">
-        <v>536902736</v>
+        <v>543544006</v>
       </c>
       <c r="C65" t="s">
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -5310,36 +5268,36 @@
         <v>28</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>43283.50277777778</v>
+        <v>43283.44722222222</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>43283.53068287037</v>
+        <v>43283.53939814815</v>
       </c>
       <c r="L65" t="n">
-        <v>104829432374</v>
+        <v>104834244513</v>
       </c>
       <c r="M65" t="n">
-        <v>103363946620</v>
+        <v>103363891450</v>
       </c>
       <c r="N65" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="O65" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="Q65" t="s"/>
       <c r="R65" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="S65" t="s"/>
       <c r="T65" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="U65" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="V65" t="s"/>
       <c r="W65" t="s"/>
@@ -5348,59 +5306,63 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="n">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="B66" t="n">
-        <v>543486998</v>
+        <v>543537699</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
       <c r="I66" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>43283.38333333333</v>
+        <v>43283.43888888889</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>43283.53310185186</v>
+        <v>43283.54519675926</v>
       </c>
       <c r="L66" t="n">
-        <v>103363809398</v>
+        <v>104834241565</v>
       </c>
       <c r="M66" t="n">
-        <v>103363809550</v>
+        <v>103363882389</v>
       </c>
       <c r="N66" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="O66" t="s">
-        <v>36</v>
-      </c>
-      <c r="P66" t="s"/>
-      <c r="Q66" t="s">
-        <v>201</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P66" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q66" t="s"/>
       <c r="R66" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="S66" t="s"/>
       <c r="T66" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="U66" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V66" t="s"/>
       <c r="W66" t="s"/>
@@ -5409,63 +5371,59 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="n">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="B67" t="n">
-        <v>542952179</v>
+        <v>543039285</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s"/>
       <c r="I67" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>43280.32916666667</v>
+        <v>43280.44513888889</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>43283.53524305556</v>
+        <v>43283.55143518518</v>
       </c>
       <c r="L67" t="n">
-        <v>103363074118</v>
+        <v>102425281790</v>
       </c>
       <c r="M67" t="n">
-        <v>103363074177</v>
+        <v>102425281803</v>
       </c>
       <c r="N67" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O67" t="s">
-        <v>206</v>
-      </c>
-      <c r="P67" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q67" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s">
+        <v>200</v>
+      </c>
       <c r="R67" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S67" t="s"/>
       <c r="T67" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="U67" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="V67" t="s"/>
       <c r="W67" t="s"/>
@@ -5474,63 +5432,63 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="n">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="B68" t="n">
-        <v>543476900</v>
+        <v>543615698</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>43283.35486111111</v>
+        <v>43283.54791666667</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>43283.53939814815</v>
+        <v>43283.5528125</v>
       </c>
       <c r="L68" t="n">
-        <v>103363787467</v>
+        <v>103363988640</v>
       </c>
       <c r="M68" t="n">
-        <v>103363789370</v>
+        <v>103363989035</v>
       </c>
       <c r="N68" t="s">
-        <v>115</v>
-      </c>
-      <c r="O68" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="O68" t="s">
+        <v>36</v>
+      </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="R68" t="s">
-        <v>115</v>
-      </c>
-      <c r="S68" t="s">
-        <v>116</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="S68" t="s"/>
       <c r="T68" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="V68" t="s"/>
       <c r="W68" t="s"/>
@@ -5539,63 +5497,59 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="n">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="B69" t="n">
-        <v>543544006</v>
+        <v>542971325</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>28</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s"/>
       <c r="I69" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>43283.44722222222</v>
+        <v>43280.36805555555</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>43283.53939814815</v>
+        <v>43283.57280092593</v>
       </c>
       <c r="L69" t="n">
-        <v>104834244513</v>
+        <v>103363119235</v>
       </c>
       <c r="M69" t="n">
-        <v>103363891450</v>
+        <v>103363119537</v>
       </c>
       <c r="N69" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="O69" t="s">
-        <v>151</v>
-      </c>
-      <c r="P69" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q69" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s">
+        <v>207</v>
+      </c>
       <c r="R69" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="S69" t="s"/>
       <c r="T69" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="U69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V69" t="s"/>
       <c r="W69" t="s"/>
@@ -5604,63 +5558,63 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="n">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="B70" t="n">
-        <v>543537699</v>
+        <v>542971320</v>
       </c>
       <c r="C70" t="s">
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>43283.43888888889</v>
+        <v>43280.36805555555</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>43283.54519675926</v>
+        <v>43283.57298611111</v>
       </c>
       <c r="L70" t="n">
-        <v>104834241565</v>
+        <v>103363119235</v>
       </c>
       <c r="M70" t="n">
-        <v>103363882389</v>
+        <v>103363119537</v>
       </c>
       <c r="N70" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="O70" t="s">
-        <v>126</v>
-      </c>
-      <c r="P70" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q70" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s">
+        <v>207</v>
+      </c>
       <c r="R70" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="S70" t="s"/>
       <c r="T70" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="U70" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V70" t="s"/>
       <c r="W70" t="s"/>
@@ -5669,52 +5623,56 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="n">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="B71" t="n">
-        <v>543039285</v>
+        <v>542971321</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" t="s">
         <v>210</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>211</v>
       </c>
-      <c r="F71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>43280.44513888889</v>
+        <v>43280.36805555555</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>43283.55143518518</v>
+        <v>43283.57300925926</v>
       </c>
       <c r="L71" t="n">
-        <v>102425281790</v>
+        <v>103363119235</v>
       </c>
       <c r="M71" t="n">
-        <v>102425281803</v>
+        <v>103363119537</v>
       </c>
       <c r="N71" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O71" t="s">
         <v>36</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="R71" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="S71" t="s"/>
       <c r="T71" t="s">
@@ -5730,22 +5688,22 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="n">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="B72" t="n">
-        <v>543615698</v>
+        <v>542971324</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5754,32 +5712,32 @@
         <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>43283.54791666667</v>
+        <v>43280.36805555555</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>43283.5528125</v>
+        <v>43283.57305555556</v>
       </c>
       <c r="L72" t="n">
-        <v>103363988640</v>
+        <v>103363119235</v>
       </c>
       <c r="M72" t="n">
-        <v>103363989035</v>
+        <v>103363119537</v>
       </c>
       <c r="N72" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="O72" t="s">
         <v>36</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="R72" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S72" t="s"/>
       <c r="T72" t="s">
@@ -5795,61 +5753,63 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="n">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="B73" t="n">
-        <v>535958435</v>
+        <v>542971322</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s">
-        <v>218</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
       <c r="I73" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>43254.39583333334</v>
+        <v>43280.36805555555</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>43283.55943287037</v>
+        <v>43283.57306712963</v>
       </c>
       <c r="L73" t="n">
-        <v>103353368313</v>
+        <v>103363119235</v>
       </c>
       <c r="M73" t="n">
-        <v>103353368445</v>
+        <v>103363119537</v>
       </c>
       <c r="N73" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O73" t="s">
-        <v>219</v>
-      </c>
-      <c r="P73" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q73" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s">
+        <v>207</v>
+      </c>
       <c r="R73" t="s">
-        <v>219</v>
-      </c>
-      <c r="S73" t="s">
-        <v>220</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="S73" t="s"/>
       <c r="T73" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="U73" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="V73" t="s"/>
       <c r="W73" t="s"/>
@@ -5858,33 +5818,37 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="n">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B74" t="n">
-        <v>542971325</v>
+        <v>542971218</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F74" t="s">
-        <v>223</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>84</v>
+      </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J74" s="1" t="n">
         <v>43280.36805555555</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>43283.57280092593</v>
+        <v>43283.57310185185</v>
       </c>
       <c r="L74" t="n">
         <v>103363119235</v>
@@ -5893,17 +5857,17 @@
         <v>103363119537</v>
       </c>
       <c r="N74" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O74" t="s">
         <v>36</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="R74" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="S74" t="s"/>
       <c r="T74" t="s">
@@ -5919,22 +5883,22 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B75" t="n">
-        <v>542971320</v>
+        <v>542971323</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5943,13 +5907,13 @@
         <v>84</v>
       </c>
       <c r="I75" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J75" s="1" t="n">
         <v>43280.36805555555</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>43283.57298611111</v>
+        <v>43283.57310185185</v>
       </c>
       <c r="L75" t="n">
         <v>103363119235</v>
@@ -5958,17 +5922,17 @@
         <v>103363119537</v>
       </c>
       <c r="N75" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O75" t="s">
         <v>36</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="R75" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="S75" t="s"/>
       <c r="T75" t="s">
@@ -5984,56 +5948,52 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B76" t="n">
-        <v>542971321</v>
+        <v>539750172</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
       </c>
       <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>43269.32638888889</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>43283.57383101852</v>
+      </c>
+      <c r="L76" t="n">
+        <v>103358698060</v>
+      </c>
+      <c r="M76" t="n">
+        <v>103358698230</v>
+      </c>
+      <c r="N76" t="s">
         <v>221</v>
-      </c>
-      <c r="E76" t="s">
-        <v>228</v>
-      </c>
-      <c r="F76" t="s">
-        <v>229</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>84</v>
-      </c>
-      <c r="I76" t="s">
-        <v>224</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>43280.36805555555</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>43283.57300925926</v>
-      </c>
-      <c r="L76" t="n">
-        <v>103363119235</v>
-      </c>
-      <c r="M76" t="n">
-        <v>103363119537</v>
-      </c>
-      <c r="N76" t="s">
-        <v>225</v>
       </c>
       <c r="O76" t="s">
         <v>36</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S76" t="s"/>
       <c r="T76" t="s">
@@ -6049,22 +6009,22 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B77" t="n">
-        <v>542971324</v>
+        <v>539750191</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -6073,32 +6033,32 @@
         <v>84</v>
       </c>
       <c r="I77" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>43280.36805555555</v>
+        <v>43269.32638888889</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>43283.57305555556</v>
+        <v>43283.57407407407</v>
       </c>
       <c r="L77" t="n">
-        <v>103363119235</v>
+        <v>103358698060</v>
       </c>
       <c r="M77" t="n">
-        <v>103363119537</v>
+        <v>103358698230</v>
       </c>
       <c r="N77" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O77" t="s">
         <v>36</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R77" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S77" t="s"/>
       <c r="T77" t="s">
@@ -6114,22 +6074,22 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B78" t="n">
-        <v>542971322</v>
+        <v>539750192</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -6138,32 +6098,32 @@
         <v>84</v>
       </c>
       <c r="I78" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>43280.36805555555</v>
+        <v>43269.32638888889</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>43283.57306712963</v>
+        <v>43283.5741087963</v>
       </c>
       <c r="L78" t="n">
-        <v>103363119235</v>
+        <v>103358698060</v>
       </c>
       <c r="M78" t="n">
-        <v>103363119537</v>
+        <v>103358698230</v>
       </c>
       <c r="N78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O78" t="s">
         <v>36</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S78" t="s"/>
       <c r="T78" t="s">
@@ -6179,22 +6139,22 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="n">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B79" t="n">
-        <v>542971218</v>
+        <v>539750174</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -6203,32 +6163,32 @@
         <v>84</v>
       </c>
       <c r="I79" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>43280.36805555555</v>
+        <v>43269.32638888889</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>43283.57310185185</v>
+        <v>43283.57416666667</v>
       </c>
       <c r="L79" t="n">
-        <v>103363119235</v>
+        <v>103358698060</v>
       </c>
       <c r="M79" t="n">
-        <v>103363119537</v>
+        <v>103358698230</v>
       </c>
       <c r="N79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O79" t="s">
         <v>36</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S79" t="s"/>
       <c r="T79" t="s">
@@ -6244,56 +6204,52 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B80" t="n">
-        <v>542971323</v>
+        <v>539750179</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
       </c>
       <c r="D80" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>206</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>43269.32638888889</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>43283.57417824074</v>
+      </c>
+      <c r="L80" t="n">
+        <v>103358698060</v>
+      </c>
+      <c r="M80" t="n">
+        <v>103358698230</v>
+      </c>
+      <c r="N80" t="s">
         <v>221</v>
-      </c>
-      <c r="E80" t="s">
-        <v>236</v>
-      </c>
-      <c r="F80" t="s">
-        <v>237</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>84</v>
-      </c>
-      <c r="I80" t="s">
-        <v>224</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>43280.36805555555</v>
-      </c>
-      <c r="K80" s="1" t="n">
-        <v>43283.57310185185</v>
-      </c>
-      <c r="L80" t="n">
-        <v>103363119235</v>
-      </c>
-      <c r="M80" t="n">
-        <v>103363119537</v>
-      </c>
-      <c r="N80" t="s">
-        <v>225</v>
       </c>
       <c r="O80" t="s">
         <v>36</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R80" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S80" t="s"/>
       <c r="T80" t="s">
@@ -6309,33 +6265,33 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B81" t="n">
-        <v>539750172</v>
+        <v>539750178</v>
       </c>
       <c r="C81" t="s">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F81" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s"/>
       <c r="H81" t="s"/>
       <c r="I81" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J81" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>43283.57383101852</v>
+        <v>43283.57418981481</v>
       </c>
       <c r="L81" t="n">
         <v>103358698060</v>
@@ -6344,17 +6300,17 @@
         <v>103358698230</v>
       </c>
       <c r="N81" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O81" t="s">
         <v>36</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R81" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S81" t="s"/>
       <c r="T81" t="s">
@@ -6370,37 +6326,33 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="n">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B82" t="n">
-        <v>539750191</v>
+        <v>539750177</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>84</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s"/>
       <c r="I82" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J82" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>43283.57407407407</v>
+        <v>43283.57420138889</v>
       </c>
       <c r="L82" t="n">
         <v>103358698060</v>
@@ -6409,17 +6361,17 @@
         <v>103358698230</v>
       </c>
       <c r="N82" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O82" t="s">
         <v>36</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R82" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S82" t="s"/>
       <c r="T82" t="s">
@@ -6435,37 +6387,33 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B83" t="n">
-        <v>539750192</v>
+        <v>539750176</v>
       </c>
       <c r="C83" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E83" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F83" t="s">
-        <v>229</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>84</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s"/>
       <c r="I83" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J83" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>43283.5741087963</v>
+        <v>43283.57422453703</v>
       </c>
       <c r="L83" t="n">
         <v>103358698060</v>
@@ -6474,17 +6422,17 @@
         <v>103358698230</v>
       </c>
       <c r="N83" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O83" t="s">
         <v>36</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R83" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S83" t="s"/>
       <c r="T83" t="s">
@@ -6500,37 +6448,33 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B84" t="n">
-        <v>539750174</v>
+        <v>539750186</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F84" t="s">
-        <v>241</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>84</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s"/>
       <c r="I84" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J84" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>43283.57416666667</v>
+        <v>43283.57424768519</v>
       </c>
       <c r="L84" t="n">
         <v>103358698060</v>
@@ -6539,17 +6483,17 @@
         <v>103358698230</v>
       </c>
       <c r="N84" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O84" t="s">
         <v>36</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R84" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S84" t="s"/>
       <c r="T84" t="s">
@@ -6565,33 +6509,33 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B85" t="n">
-        <v>539750179</v>
+        <v>539750184</v>
       </c>
       <c r="C85" t="s">
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F85" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G85" t="s"/>
       <c r="H85" t="s"/>
       <c r="I85" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J85" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>43283.57417824074</v>
+        <v>43283.5742824074</v>
       </c>
       <c r="L85" t="n">
         <v>103358698060</v>
@@ -6600,17 +6544,17 @@
         <v>103358698230</v>
       </c>
       <c r="N85" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O85" t="s">
         <v>36</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R85" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S85" t="s"/>
       <c r="T85" t="s">
@@ -6626,33 +6570,33 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B86" t="n">
-        <v>539750178</v>
+        <v>539750183</v>
       </c>
       <c r="C86" t="s">
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E86" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F86" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G86" t="s"/>
       <c r="H86" t="s"/>
       <c r="I86" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J86" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>43283.57418981481</v>
+        <v>43283.57429398148</v>
       </c>
       <c r="L86" t="n">
         <v>103358698060</v>
@@ -6661,17 +6605,17 @@
         <v>103358698230</v>
       </c>
       <c r="N86" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O86" t="s">
         <v>36</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R86" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S86" t="s"/>
       <c r="T86" t="s">
@@ -6687,33 +6631,37 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B87" t="n">
-        <v>539750177</v>
+        <v>539750188</v>
       </c>
       <c r="C87" t="s">
         <v>24</v>
       </c>
       <c r="D87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" t="s">
         <v>238</v>
       </c>
-      <c r="E87" t="s">
-        <v>246</v>
-      </c>
       <c r="F87" t="s">
-        <v>247</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
       <c r="I87" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J87" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>43283.57420138889</v>
+        <v>43283.5743287037</v>
       </c>
       <c r="L87" t="n">
         <v>103358698060</v>
@@ -6722,17 +6670,17 @@
         <v>103358698230</v>
       </c>
       <c r="N87" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O87" t="s">
         <v>36</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R87" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S87" t="s"/>
       <c r="T87" t="s">
@@ -6748,33 +6696,37 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B88" t="n">
-        <v>539750176</v>
+        <v>539750189</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E88" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
       <c r="I88" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J88" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>43283.57422453703</v>
+        <v>43283.57434027778</v>
       </c>
       <c r="L88" t="n">
         <v>103358698060</v>
@@ -6783,17 +6735,17 @@
         <v>103358698230</v>
       </c>
       <c r="N88" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O88" t="s">
         <v>36</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R88" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S88" t="s"/>
       <c r="T88" t="s">
@@ -6809,33 +6761,37 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B89" t="n">
-        <v>539750186</v>
+        <v>539750190</v>
       </c>
       <c r="C89" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E89" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
       <c r="I89" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J89" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>43283.57424768519</v>
+        <v>43283.57436342593</v>
       </c>
       <c r="L89" t="n">
         <v>103358698060</v>
@@ -6844,17 +6800,17 @@
         <v>103358698230</v>
       </c>
       <c r="N89" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O89" t="s">
         <v>36</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R89" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S89" t="s"/>
       <c r="T89" t="s">
@@ -6870,33 +6826,33 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B90" t="n">
-        <v>539750184</v>
+        <v>539750173</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G90" t="s"/>
       <c r="H90" t="s"/>
       <c r="I90" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J90" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>43283.5742824074</v>
+        <v>43283.57438657407</v>
       </c>
       <c r="L90" t="n">
         <v>103358698060</v>
@@ -6905,17 +6861,17 @@
         <v>103358698230</v>
       </c>
       <c r="N90" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O90" t="s">
         <v>36</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R90" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S90" t="s"/>
       <c r="T90" t="s">
@@ -6931,33 +6887,37 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B91" t="n">
-        <v>539750183</v>
+        <v>539750187</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="F91" t="s">
-        <v>255</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
       <c r="I91" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J91" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>43283.57429398148</v>
+        <v>43283.57439814815</v>
       </c>
       <c r="L91" t="n">
         <v>103358698060</v>
@@ -6966,17 +6926,17 @@
         <v>103358698230</v>
       </c>
       <c r="N91" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O91" t="s">
         <v>36</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R91" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S91" t="s"/>
       <c r="T91" t="s">
@@ -6992,22 +6952,22 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B92" t="n">
-        <v>539750188</v>
+        <v>539750185</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="F92" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -7016,13 +6976,13 @@
         <v>84</v>
       </c>
       <c r="I92" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J92" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>43283.5743287037</v>
+        <v>43283.57440972222</v>
       </c>
       <c r="L92" t="n">
         <v>103358698060</v>
@@ -7031,17 +6991,17 @@
         <v>103358698230</v>
       </c>
       <c r="N92" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O92" t="s">
         <v>36</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R92" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S92" t="s"/>
       <c r="T92" t="s">
@@ -7057,37 +7017,37 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B93" t="n">
-        <v>539750189</v>
+        <v>539750133</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="I93" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J93" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>43283.57434027778</v>
+        <v>43283.5744212963</v>
       </c>
       <c r="L93" t="n">
         <v>103358698060</v>
@@ -7096,17 +7056,17 @@
         <v>103358698230</v>
       </c>
       <c r="N93" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O93" t="s">
         <v>36</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R93" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S93" t="s"/>
       <c r="T93" t="s">
@@ -7122,22 +7082,22 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B94" t="n">
-        <v>539750190</v>
+        <v>539750182</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F94" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -7146,13 +7106,13 @@
         <v>84</v>
       </c>
       <c r="I94" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J94" s="1" t="n">
         <v>43269.32638888889</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>43283.57436342593</v>
+        <v>43283.5744212963</v>
       </c>
       <c r="L94" t="n">
         <v>103358698060</v>
@@ -7161,17 +7121,17 @@
         <v>103358698230</v>
       </c>
       <c r="N94" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O94" t="s">
         <v>36</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="R94" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="S94" t="s"/>
       <c r="T94" t="s">
@@ -7187,52 +7147,52 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B95" t="n">
-        <v>539750173</v>
+        <v>539770510</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="G95" t="s"/>
       <c r="H95" t="s"/>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>43269.32638888889</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>43283.57438657407</v>
+        <v>43283.5749537037</v>
       </c>
       <c r="L95" t="n">
-        <v>103358698060</v>
+        <v>103358753703</v>
       </c>
       <c r="M95" t="n">
-        <v>103358698230</v>
+        <v>103358755730</v>
       </c>
       <c r="N95" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O95" t="s">
         <v>36</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="R95" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="S95" t="s"/>
       <c r="T95" t="s">
@@ -7248,22 +7208,22 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B96" t="n">
-        <v>539750187</v>
+        <v>539770530</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F96" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -7272,32 +7232,32 @@
         <v>84</v>
       </c>
       <c r="I96" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>43269.32638888889</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>43283.57439814815</v>
+        <v>43283.57502314815</v>
       </c>
       <c r="L96" t="n">
-        <v>103358698060</v>
+        <v>103358753703</v>
       </c>
       <c r="M96" t="n">
-        <v>103358698230</v>
+        <v>103358755730</v>
       </c>
       <c r="N96" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O96" t="s">
         <v>36</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="R96" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="S96" t="s"/>
       <c r="T96" t="s">
@@ -7313,22 +7273,22 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B97" t="n">
-        <v>539750185</v>
+        <v>539770531</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E97" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -7337,32 +7297,32 @@
         <v>84</v>
       </c>
       <c r="I97" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>43269.32638888889</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>43283.57440972222</v>
+        <v>43283.5750462963</v>
       </c>
       <c r="L97" t="n">
-        <v>103358698060</v>
+        <v>103358753703</v>
       </c>
       <c r="M97" t="n">
-        <v>103358698230</v>
+        <v>103358755730</v>
       </c>
       <c r="N97" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O97" t="s">
         <v>36</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="R97" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="S97" t="s"/>
       <c r="T97" t="s">
@@ -7378,56 +7338,56 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B98" t="n">
-        <v>539750133</v>
+        <v>539770513</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="F98" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="I98" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>43269.32638888889</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>43283.5744212963</v>
+        <v>43283.57508101852</v>
       </c>
       <c r="L98" t="n">
-        <v>103358698060</v>
+        <v>103358753703</v>
       </c>
       <c r="M98" t="n">
-        <v>103358698230</v>
+        <v>103358755730</v>
       </c>
       <c r="N98" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O98" t="s">
         <v>36</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="R98" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="S98" t="s"/>
       <c r="T98" t="s">
@@ -7443,56 +7403,52 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B99" t="n">
-        <v>539750182</v>
+        <v>539770518</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E99" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="F99" t="s">
-        <v>266</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>84</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s"/>
       <c r="I99" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>43269.32638888889</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>43283.5744212963</v>
+        <v>43283.57508101852</v>
       </c>
       <c r="L99" t="n">
-        <v>103358698060</v>
+        <v>103358753703</v>
       </c>
       <c r="M99" t="n">
-        <v>103358698230</v>
+        <v>103358755730</v>
       </c>
       <c r="N99" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O99" t="s">
         <v>36</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="R99" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="S99" t="s"/>
       <c r="T99" t="s">
@@ -7508,33 +7464,33 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B100" t="n">
-        <v>539770510</v>
+        <v>539770517</v>
       </c>
       <c r="C100" t="s">
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E100" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F100" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s"/>
       <c r="H100" t="s"/>
       <c r="I100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J100" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>43283.5749537037</v>
+        <v>43283.57509259259</v>
       </c>
       <c r="L100" t="n">
         <v>103358753703</v>
@@ -7543,17 +7499,17 @@
         <v>103358755730</v>
       </c>
       <c r="N100" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O100" t="s">
         <v>36</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R100" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S100" t="s"/>
       <c r="T100" t="s">
@@ -7569,37 +7525,33 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B101" t="n">
-        <v>539770530</v>
+        <v>539770516</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F101" t="s">
-        <v>227</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>84</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s"/>
       <c r="I101" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J101" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>43283.57502314815</v>
+        <v>43283.57512731481</v>
       </c>
       <c r="L101" t="n">
         <v>103358753703</v>
@@ -7608,17 +7560,17 @@
         <v>103358755730</v>
       </c>
       <c r="N101" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O101" t="s">
         <v>36</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R101" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S101" t="s"/>
       <c r="T101" t="s">
@@ -7634,37 +7586,33 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B102" t="n">
-        <v>539770531</v>
+        <v>539770515</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F102" t="s">
-        <v>229</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>84</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s"/>
       <c r="I102" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J102" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>43283.5750462963</v>
+        <v>43283.57520833334</v>
       </c>
       <c r="L102" t="n">
         <v>103358753703</v>
@@ -7673,17 +7621,17 @@
         <v>103358755730</v>
       </c>
       <c r="N102" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O102" t="s">
         <v>36</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R102" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S102" t="s"/>
       <c r="T102" t="s">
@@ -7699,37 +7647,33 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B103" t="n">
-        <v>539770513</v>
+        <v>539770525</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E103" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
-        <v>241</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>84</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s"/>
       <c r="I103" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>43283.57508101852</v>
+        <v>43283.57523148148</v>
       </c>
       <c r="L103" t="n">
         <v>103358753703</v>
@@ -7738,17 +7682,17 @@
         <v>103358755730</v>
       </c>
       <c r="N103" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O103" t="s">
         <v>36</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R103" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S103" t="s"/>
       <c r="T103" t="s">
@@ -7764,33 +7708,33 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B104" t="n">
-        <v>539770518</v>
+        <v>539770523</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E104" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F104" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G104" t="s"/>
       <c r="H104" t="s"/>
       <c r="I104" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J104" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>43283.57508101852</v>
+        <v>43283.57525462963</v>
       </c>
       <c r="L104" t="n">
         <v>103358753703</v>
@@ -7799,17 +7743,17 @@
         <v>103358755730</v>
       </c>
       <c r="N104" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O104" t="s">
         <v>36</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R104" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S104" t="s"/>
       <c r="T104" t="s">
@@ -7825,33 +7769,33 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="n">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B105" t="n">
-        <v>539770517</v>
+        <v>539770522</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F105" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G105" t="s"/>
       <c r="H105" t="s"/>
       <c r="I105" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J105" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>43283.57509259259</v>
+        <v>43283.57527777777</v>
       </c>
       <c r="L105" t="n">
         <v>103358753703</v>
@@ -7860,17 +7804,17 @@
         <v>103358755730</v>
       </c>
       <c r="N105" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O105" t="s">
         <v>36</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R105" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S105" t="s"/>
       <c r="T105" t="s">
@@ -7886,33 +7830,37 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B106" t="n">
-        <v>539770516</v>
+        <v>539770527</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E106" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F106" t="s">
-        <v>247</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>84</v>
+      </c>
       <c r="I106" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J106" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>43283.57512731481</v>
+        <v>43283.57532407407</v>
       </c>
       <c r="L106" t="n">
         <v>103358753703</v>
@@ -7921,17 +7869,17 @@
         <v>103358755730</v>
       </c>
       <c r="N106" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O106" t="s">
         <v>36</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R106" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S106" t="s"/>
       <c r="T106" t="s">
@@ -7947,33 +7895,37 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="n">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B107" t="n">
-        <v>539770515</v>
+        <v>539770529</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F107" t="s">
-        <v>249</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>84</v>
+      </c>
       <c r="I107" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J107" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>43283.57520833334</v>
+        <v>43283.57534722222</v>
       </c>
       <c r="L107" t="n">
         <v>103358753703</v>
@@ -7982,17 +7934,17 @@
         <v>103358755730</v>
       </c>
       <c r="N107" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O107" t="s">
         <v>36</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R107" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S107" t="s"/>
       <c r="T107" t="s">
@@ -8008,33 +7960,37 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B108" t="n">
-        <v>539770525</v>
+        <v>539770528</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E108" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>251</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>84</v>
+      </c>
       <c r="I108" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J108" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>43283.57523148148</v>
+        <v>43283.57534722222</v>
       </c>
       <c r="L108" t="n">
         <v>103358753703</v>
@@ -8043,17 +7999,17 @@
         <v>103358755730</v>
       </c>
       <c r="N108" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O108" t="s">
         <v>36</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R108" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S108" t="s"/>
       <c r="T108" t="s">
@@ -8069,33 +8025,37 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B109" t="n">
-        <v>539770523</v>
+        <v>539770526</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E109" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>253</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>84</v>
+      </c>
       <c r="I109" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>43283.57525462963</v>
+        <v>43283.57537037037</v>
       </c>
       <c r="L109" t="n">
         <v>103358753703</v>
@@ -8104,17 +8064,17 @@
         <v>103358755730</v>
       </c>
       <c r="N109" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O109" t="s">
         <v>36</v>
       </c>
       <c r="P109" t="s"/>
       <c r="Q109" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R109" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S109" t="s"/>
       <c r="T109" t="s">
@@ -8130,33 +8090,33 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B110" t="n">
-        <v>539770522</v>
+        <v>539770512</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E110" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F110" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G110" t="s"/>
       <c r="H110" t="s"/>
       <c r="I110" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J110" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>43283.57527777777</v>
+        <v>43283.57537037037</v>
       </c>
       <c r="L110" t="n">
         <v>103358753703</v>
@@ -8165,17 +8125,17 @@
         <v>103358755730</v>
       </c>
       <c r="N110" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O110" t="s">
         <v>36</v>
       </c>
       <c r="P110" t="s"/>
       <c r="Q110" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R110" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S110" t="s"/>
       <c r="T110" t="s">
@@ -8191,22 +8151,22 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="n">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B111" t="n">
-        <v>539770527</v>
+        <v>539770524</v>
       </c>
       <c r="C111" t="s">
         <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E111" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -8215,13 +8175,13 @@
         <v>84</v>
       </c>
       <c r="I111" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J111" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>43283.57532407407</v>
+        <v>43283.57539351852</v>
       </c>
       <c r="L111" t="n">
         <v>103358753703</v>
@@ -8230,17 +8190,17 @@
         <v>103358755730</v>
       </c>
       <c r="N111" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O111" t="s">
         <v>36</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R111" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S111" t="s"/>
       <c r="T111" t="s">
@@ -8256,22 +8216,22 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B112" t="n">
-        <v>539770529</v>
+        <v>539770521</v>
       </c>
       <c r="C112" t="s">
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E112" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F112" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -8280,13 +8240,13 @@
         <v>84</v>
       </c>
       <c r="I112" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J112" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>43283.57534722222</v>
+        <v>43283.57540509259</v>
       </c>
       <c r="L112" t="n">
         <v>103358753703</v>
@@ -8295,17 +8255,17 @@
         <v>103358755730</v>
       </c>
       <c r="N112" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O112" t="s">
         <v>36</v>
       </c>
       <c r="P112" t="s"/>
       <c r="Q112" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R112" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S112" t="s"/>
       <c r="T112" t="s">
@@ -8321,37 +8281,37 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="n">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B113" t="n">
-        <v>539770528</v>
+        <v>539770238</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F113" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="I113" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J113" s="1" t="n">
         <v>43269.36041666667</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>43283.57534722222</v>
+        <v>43283.57540509259</v>
       </c>
       <c r="L113" t="n">
         <v>103358753703</v>
@@ -8360,17 +8320,17 @@
         <v>103358755730</v>
       </c>
       <c r="N113" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O113" t="s">
         <v>36</v>
       </c>
       <c r="P113" t="s"/>
       <c r="Q113" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R113" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="S113" t="s"/>
       <c r="T113" t="s">
@@ -8384,327 +8344,6 @@
       <c r="X113" t="s"/>
       <c r="Y113" t="s"/>
     </row>
-    <row r="114" spans="1:25">
-      <c r="A114" t="n">
-        <v>495</v>
-      </c>
-      <c r="B114" t="n">
-        <v>539770526</v>
-      </c>
-      <c r="C114" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" t="s">
-        <v>267</v>
-      </c>
-      <c r="E114" t="s">
-        <v>232</v>
-      </c>
-      <c r="F114" t="s">
-        <v>233</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>84</v>
-      </c>
-      <c r="I114" t="s">
-        <v>224</v>
-      </c>
-      <c r="J114" s="1" t="n">
-        <v>43269.36041666667</v>
-      </c>
-      <c r="K114" s="1" t="n">
-        <v>43283.57537037037</v>
-      </c>
-      <c r="L114" t="n">
-        <v>103358753703</v>
-      </c>
-      <c r="M114" t="n">
-        <v>103358755730</v>
-      </c>
-      <c r="N114" t="s">
-        <v>268</v>
-      </c>
-      <c r="O114" t="s">
-        <v>36</v>
-      </c>
-      <c r="P114" t="s"/>
-      <c r="Q114" t="s">
-        <v>268</v>
-      </c>
-      <c r="R114" t="s">
-        <v>268</v>
-      </c>
-      <c r="S114" t="s"/>
-      <c r="T114" t="s">
-        <v>36</v>
-      </c>
-      <c r="U114" t="s">
-        <v>36</v>
-      </c>
-      <c r="V114" t="s"/>
-      <c r="W114" t="s"/>
-      <c r="X114" t="s"/>
-      <c r="Y114" t="s"/>
-    </row>
-    <row r="115" spans="1:25">
-      <c r="A115" t="n">
-        <v>496</v>
-      </c>
-      <c r="B115" t="n">
-        <v>539770512</v>
-      </c>
-      <c r="C115" t="s">
-        <v>24</v>
-      </c>
-      <c r="D115" t="s">
-        <v>267</v>
-      </c>
-      <c r="E115" t="s">
-        <v>260</v>
-      </c>
-      <c r="F115" t="s">
-        <v>261</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>224</v>
-      </c>
-      <c r="J115" s="1" t="n">
-        <v>43269.36041666667</v>
-      </c>
-      <c r="K115" s="1" t="n">
-        <v>43283.57537037037</v>
-      </c>
-      <c r="L115" t="n">
-        <v>103358753703</v>
-      </c>
-      <c r="M115" t="n">
-        <v>103358755730</v>
-      </c>
-      <c r="N115" t="s">
-        <v>268</v>
-      </c>
-      <c r="O115" t="s">
-        <v>36</v>
-      </c>
-      <c r="P115" t="s"/>
-      <c r="Q115" t="s">
-        <v>268</v>
-      </c>
-      <c r="R115" t="s">
-        <v>268</v>
-      </c>
-      <c r="S115" t="s"/>
-      <c r="T115" t="s">
-        <v>36</v>
-      </c>
-      <c r="U115" t="s">
-        <v>36</v>
-      </c>
-      <c r="V115" t="s"/>
-      <c r="W115" t="s"/>
-      <c r="X115" t="s"/>
-      <c r="Y115" t="s"/>
-    </row>
-    <row r="116" spans="1:25">
-      <c r="A116" t="n">
-        <v>497</v>
-      </c>
-      <c r="B116" t="n">
-        <v>539770524</v>
-      </c>
-      <c r="C116" t="s">
-        <v>24</v>
-      </c>
-      <c r="D116" t="s">
-        <v>267</v>
-      </c>
-      <c r="E116" t="s">
-        <v>236</v>
-      </c>
-      <c r="F116" t="s">
-        <v>237</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>84</v>
-      </c>
-      <c r="I116" t="s">
-        <v>224</v>
-      </c>
-      <c r="J116" s="1" t="n">
-        <v>43269.36041666667</v>
-      </c>
-      <c r="K116" s="1" t="n">
-        <v>43283.57539351852</v>
-      </c>
-      <c r="L116" t="n">
-        <v>103358753703</v>
-      </c>
-      <c r="M116" t="n">
-        <v>103358755730</v>
-      </c>
-      <c r="N116" t="s">
-        <v>268</v>
-      </c>
-      <c r="O116" t="s">
-        <v>36</v>
-      </c>
-      <c r="P116" t="s"/>
-      <c r="Q116" t="s">
-        <v>268</v>
-      </c>
-      <c r="R116" t="s">
-        <v>268</v>
-      </c>
-      <c r="S116" t="s"/>
-      <c r="T116" t="s">
-        <v>36</v>
-      </c>
-      <c r="U116" t="s">
-        <v>36</v>
-      </c>
-      <c r="V116" t="s"/>
-      <c r="W116" t="s"/>
-      <c r="X116" t="s"/>
-      <c r="Y116" t="s"/>
-    </row>
-    <row r="117" spans="1:25">
-      <c r="A117" t="n">
-        <v>498</v>
-      </c>
-      <c r="B117" t="n">
-        <v>539770521</v>
-      </c>
-      <c r="C117" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" t="s">
-        <v>267</v>
-      </c>
-      <c r="E117" t="s">
-        <v>265</v>
-      </c>
-      <c r="F117" t="s">
-        <v>266</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>84</v>
-      </c>
-      <c r="I117" t="s">
-        <v>224</v>
-      </c>
-      <c r="J117" s="1" t="n">
-        <v>43269.36041666667</v>
-      </c>
-      <c r="K117" s="1" t="n">
-        <v>43283.57540509259</v>
-      </c>
-      <c r="L117" t="n">
-        <v>103358753703</v>
-      </c>
-      <c r="M117" t="n">
-        <v>103358755730</v>
-      </c>
-      <c r="N117" t="s">
-        <v>268</v>
-      </c>
-      <c r="O117" t="s">
-        <v>36</v>
-      </c>
-      <c r="P117" t="s"/>
-      <c r="Q117" t="s">
-        <v>268</v>
-      </c>
-      <c r="R117" t="s">
-        <v>268</v>
-      </c>
-      <c r="S117" t="s"/>
-      <c r="T117" t="s">
-        <v>36</v>
-      </c>
-      <c r="U117" t="s">
-        <v>36</v>
-      </c>
-      <c r="V117" t="s"/>
-      <c r="W117" t="s"/>
-      <c r="X117" t="s"/>
-      <c r="Y117" t="s"/>
-    </row>
-    <row r="118" spans="1:25">
-      <c r="A118" t="n">
-        <v>499</v>
-      </c>
-      <c r="B118" t="n">
-        <v>539770238</v>
-      </c>
-      <c r="C118" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" t="s">
-        <v>267</v>
-      </c>
-      <c r="E118" t="s">
-        <v>262</v>
-      </c>
-      <c r="F118" t="s">
-        <v>263</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>264</v>
-      </c>
-      <c r="I118" t="s">
-        <v>224</v>
-      </c>
-      <c r="J118" s="1" t="n">
-        <v>43269.36041666667</v>
-      </c>
-      <c r="K118" s="1" t="n">
-        <v>43283.57540509259</v>
-      </c>
-      <c r="L118" t="n">
-        <v>103358753703</v>
-      </c>
-      <c r="M118" t="n">
-        <v>103358755730</v>
-      </c>
-      <c r="N118" t="s">
-        <v>268</v>
-      </c>
-      <c r="O118" t="s">
-        <v>36</v>
-      </c>
-      <c r="P118" t="s"/>
-      <c r="Q118" t="s">
-        <v>268</v>
-      </c>
-      <c r="R118" t="s">
-        <v>268</v>
-      </c>
-      <c r="S118" t="s"/>
-      <c r="T118" t="s">
-        <v>36</v>
-      </c>
-      <c r="U118" t="s">
-        <v>36</v>
-      </c>
-      <c r="V118" t="s"/>
-      <c r="W118" t="s"/>
-      <c r="X118" t="s"/>
-      <c r="Y118" t="s"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
